--- a/static/xls/material.xlsx
+++ b/static/xls/material.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="14310" windowHeight="12780"/>
+    <workbookView windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>PP合成纸（聚丙烯）</t>
   </si>
@@ -32,7 +32,7 @@
 特点：优异的打印性能，镀铝层在下，有金属质感，适合室内外使用；</t>
   </si>
   <si>
-    <t>（605）亮白PET（聚酯）</t>
+    <t>(605)亮白PET（聚酯）</t>
   </si>
   <si>
     <t>材质名称：亮白PET（聚酯）（605）
@@ -40,28 +40,12 @@
 特点：优异的打印性能，耐摩性能，防水、无胶，适合室内外使用；</t>
   </si>
   <si>
-    <t>（404）亮白PET（聚酯）</t>
+    <t>(404)亮白PET（聚酯）</t>
   </si>
   <si>
     <t>材质名称：亮白PET（聚酯）（404）
 最佳使用年限：室内（3-5年）、室外（1年）
 特点：优异的打印性能、耐摩擦、防水、不推荐户外使用；</t>
-  </si>
-  <si>
-    <t>（410）亮白PET（聚酯）</t>
-  </si>
-  <si>
-    <t>材质名称：亮白PET（聚酯）（410）
-最佳使用年限：室内（5-8年）、室外（3-5年）
-特点：优异的打印效果，胶水与面材具有良好的耐候性，适合室内外使用，胶厚加工容易溢胶；</t>
-  </si>
-  <si>
-    <t>（432）亮白PET（聚酯）</t>
-  </si>
-  <si>
-    <t>材质名称：亮白PET（聚酯）（432）
-最佳使用年限：室内（5-8年）、室外（3-5年）
-特点：优异的打印效果，胶水与面材具有良好的耐候性，胶水具有较大的终粘力值，适合室内外使用，不适合印刷，只能本色打印；</t>
   </si>
   <si>
     <t>(701)PVC（聚氯乙烯)</t>
@@ -104,10 +88,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -118,11 +102,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,7 +188,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,105 +210,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,13 +255,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,31 +393,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,127 +429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,11 +449,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +499,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,58 +541,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +566,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,10 +1028,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1064,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="1:2">
+    <row r="2" ht="40.5" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1072,7 +1056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="1:2">
+    <row r="3" ht="40.5" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1080,7 +1064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="54" spans="1:2">
+    <row r="4" ht="40.5" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1088,7 +1072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="54" spans="1:2">
+    <row r="5" ht="40.5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="67.5" spans="1:2">
+    <row r="6" ht="40.5" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1112,7 +1096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="54" spans="1:2">
+    <row r="8" ht="40.5" spans="1:2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1120,31 +1104,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="40.5" spans="1:2">
-      <c r="A9" t="s">
+    <row r="9" ht="29.1" customHeight="1" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="40.5" spans="1:2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" ht="29.1" customHeight="1" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="B9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
